--- a/experiments/TableComparison/ComparisonTable, m = 5, n = 10, k = 150, nbRuns = 200.xlsx
+++ b/experiments/TableComparison/ComparisonTable, m = 5, n = 10, k = 150, nbRuns = 200.xlsx
@@ -63,33 +63,7 @@
     <t xml:space="preserve">L.Pes.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Rd.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">π=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.1</t>
-    </r>
+    <t xml:space="preserve">Rnd.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,12 +94,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -281,7 +249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rd.π=0.1</c:v>
+                  <c:v>Rnd.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -622,10 +590,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Random, 0.1, m = 5, n = 10, k = 150, nbRuns = 200'!$C$2:$C$98</c:f>
+              <c:f>'Random, 0.5, m = 5, n = 10, k = 150, nbRuns = 200'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -639,283 +607,295 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.96</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.81</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.72</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.61</c:v>
+                  <c:v>9.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.01</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.85</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.74</c:v>
+                  <c:v>9.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>8.62</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.47</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.07</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.79</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.36</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.24</c:v>
+                  <c:v>8.54</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.09</c:v>
+                  <c:v>8.46</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.95</c:v>
+                  <c:v>8.38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.82</c:v>
+                  <c:v>8.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.7</c:v>
+                  <c:v>8.17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.39</c:v>
+                  <c:v>7.99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.24</c:v>
+                  <c:v>7.91</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.12</c:v>
+                  <c:v>7.84</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.96</c:v>
+                  <c:v>7.78</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.68</c:v>
+                  <c:v>7.63</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.5</c:v>
+                  <c:v>7.54</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>5.37</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.26</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.09</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.93</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.81</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.66</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.52</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.41</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="65">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.77</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>4.25</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.07</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="79">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.02</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>3.94</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.53</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.24</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.15</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.15</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.08</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.07</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.03</c:v>
+                  <c:v>3.43</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.02</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.02</c:v>
+                  <c:v>3.27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.01</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.01</c:v>
+                  <c:v>3.16</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,10 +1908,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Elitist, m = 5, n = 10, k = 150, nbRuns = 200'!$C$2:$C$100</c:f>
+              <c:f>'Elitist, m = 5, n = 10, k = 150, nbRuns = 200'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2227,6 +2207,12 @@
                   <c:v>2.28</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2.28</c:v>
                 </c:pt>
               </c:numCache>
@@ -2904,11 +2890,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25055730"/>
-        <c:axId val="18303225"/>
+        <c:axId val="49196399"/>
+        <c:axId val="97243045"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25055730"/>
+        <c:axId val="49196399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,14 +2967,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18303225"/>
+        <c:crossAx val="97243045"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18303225"/>
+        <c:axId val="97243045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3070,7 +3056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25055730"/>
+        <c:crossAx val="49196399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3118,9 +3104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>482400</xdr:colOff>
+      <xdr:colOff>511920</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3128,8 +3114,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1869120" y="1338840"/>
-        <a:ext cx="5814000" cy="3767400"/>
+        <a:off x="1840680" y="1338840"/>
+        <a:ext cx="5757840" cy="3834000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3155,14 +3141,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,19 +7577,18 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,20 +12017,20 @@
   </sheetPr>
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16475,20 +16459,20 @@
   </sheetPr>
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20917,20 +20901,20 @@
   </sheetPr>
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E158" activeCellId="0" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25360,12 +25344,12 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q43" activeCellId="0" sqref="Q43"/>
+      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experiments/TableComparison/ComparisonTable, m = 5, n = 10, k = 150, nbRuns = 200.xlsx
+++ b/experiments/TableComparison/ComparisonTable, m = 5, n = 10, k = 150, nbRuns = 200.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Random, 0.1, m = 5, n = 10, k = 150, nbRuns = 200" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,13 +54,13 @@
     <t xml:space="preserve">Loss σ (est.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pes.</t>
+    <t xml:space="preserve">Ex. Pes.</t>
   </si>
   <si>
     <t xml:space="preserve">Eli.</t>
   </si>
   <si>
-    <t xml:space="preserve">L.Pes.</t>
+    <t xml:space="preserve">Pes.</t>
   </si>
   <si>
     <t xml:space="preserve">Rnd.</t>
@@ -214,10 +214,10 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF579D1C"/>
@@ -911,7 +911,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pes.</c:v>
+                  <c:v>Ex. Pes.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1574,11 +1574,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="3465a4"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="3465a4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2229,7 +2229,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>L.Pes.</c:v>
+                  <c:v>Pes.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2890,11 +2890,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49196399"/>
-        <c:axId val="97243045"/>
+        <c:axId val="95528927"/>
+        <c:axId val="42730936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49196399"/>
+        <c:axId val="95528927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,14 +2967,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97243045"/>
+        <c:crossAx val="42730936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97243045"/>
+        <c:axId val="42730936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49196399"/>
+        <c:crossAx val="95528927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3104,9 +3104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>511920</xdr:colOff>
+      <xdr:colOff>510840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3114,8 +3114,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1840680" y="1338840"/>
-        <a:ext cx="5757840" cy="3834000"/>
+        <a:off x="1869120" y="1338840"/>
+        <a:ext cx="5842440" cy="3832920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3141,13 +3141,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,13 +7582,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12023,14 +12023,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16465,14 +16464,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20907,14 +20905,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25343,13 +25340,13 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
